--- a/trunk/BKI1100_R30_资源文件/Run.xlsx
+++ b/trunk/BKI1100_R30_资源文件/Run.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\代码\BioBaseCLIA\1100\trunk\BKI1100_R30_资源文件\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6426D8A4-DD0E-4020-83CD-B3CCB29DE2AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="frmAddSample" sheetId="1" r:id="rId1"/>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="617">
   <si>
     <t>keywordText.Standard</t>
   </si>
@@ -1875,13 +1881,20 @@
   </si>
   <si>
     <t>Export Prompt</t>
+  </si>
+  <si>
+    <t>Do not add reagents during the experiment!</t>
+  </si>
+  <si>
+    <t>keywordText.DontAddReagentWithWorking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1934,7 +1947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1942,6 +1955,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2215,21 +2231,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A88" sqref="A88:XFD88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="36.875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
@@ -2237,7 +2253,7 @@
     <col min="5" max="5" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2250,7 +2266,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2267,7 +2283,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2284,7 +2300,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>126</v>
       </c>
@@ -2301,7 +2317,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -2318,7 +2334,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -2335,7 +2351,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -2352,7 +2368,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2369,7 +2385,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -2386,7 +2402,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2403,7 +2419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -2420,7 +2436,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -2437,7 +2453,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -2454,7 +2470,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -2471,7 +2487,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -2488,7 +2504,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -2505,7 +2521,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -2522,7 +2538,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2539,7 +2555,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -2556,7 +2572,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2573,7 +2589,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -2590,7 +2606,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>164</v>
       </c>
@@ -2607,7 +2623,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -2624,7 +2640,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2641,7 +2657,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
@@ -2658,7 +2674,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2675,7 +2691,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -2692,7 +2708,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>166</v>
       </c>
@@ -2709,7 +2725,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>174</v>
       </c>
@@ -2726,7 +2742,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>158</v>
       </c>
@@ -2743,7 +2759,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>106</v>
       </c>
@@ -2760,7 +2776,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2777,7 +2793,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>170</v>
       </c>
@@ -2794,7 +2810,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>172</v>
       </c>
@@ -2811,7 +2827,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2828,7 +2844,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>138</v>
       </c>
@@ -2845,7 +2861,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>122</v>
       </c>
@@ -2862,7 +2878,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -2879,7 +2895,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -2896,7 +2912,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>140</v>
       </c>
@@ -2913,7 +2929,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -2930,7 +2946,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>110</v>
       </c>
@@ -2947,7 +2963,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>112</v>
       </c>
@@ -2964,7 +2980,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -2981,7 +2997,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>142</v>
       </c>
@@ -2998,7 +3014,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -3015,7 +3031,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>134</v>
       </c>
@@ -3032,7 +3048,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>136</v>
       </c>
@@ -3049,7 +3065,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>128</v>
       </c>
@@ -3066,7 +3082,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>130</v>
       </c>
@@ -3083,7 +3099,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>120</v>
       </c>
@@ -3100,7 +3116,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -3117,7 +3133,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>150</v>
       </c>
@@ -3134,7 +3150,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -3151,7 +3167,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -3168,7 +3184,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -3185,7 +3201,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -3202,7 +3218,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -3219,7 +3235,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -3236,7 +3252,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -3253,7 +3269,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>146</v>
       </c>
@@ -3270,7 +3286,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>176</v>
       </c>
@@ -3287,7 +3303,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -3304,7 +3320,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>56</v>
       </c>
@@ -3321,7 +3337,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>154</v>
       </c>
@@ -3338,7 +3354,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>148</v>
       </c>
@@ -3355,7 +3371,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>144</v>
       </c>
@@ -3372,7 +3388,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -3389,7 +3405,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -3406,7 +3422,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>108</v>
       </c>
@@ -3423,7 +3439,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>156</v>
       </c>
@@ -3440,7 +3456,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -3457,7 +3473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -3474,7 +3490,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -3491,7 +3507,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -3508,7 +3524,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3525,7 +3541,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>84</v>
       </c>
@@ -3542,7 +3558,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -3559,7 +3575,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -3576,7 +3592,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>74</v>
       </c>
@@ -3593,7 +3609,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -3610,7 +3626,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>64</v>
       </c>
@@ -3627,7 +3643,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>162</v>
       </c>
@@ -3644,7 +3660,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>68</v>
       </c>
@@ -3661,7 +3677,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>104</v>
       </c>
@@ -3678,7 +3694,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>168</v>
       </c>
@@ -3695,7 +3711,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>58</v>
       </c>
@@ -3712,7 +3728,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -3730,7 +3746,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E88">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E88">
     <sortCondition ref="A2:A88"/>
   </sortState>
   <mergeCells count="2">
@@ -3744,14 +3760,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.625" customWidth="1"/>
     <col min="2" max="2" width="32.75" customWidth="1"/>
@@ -3760,7 +3776,7 @@
     <col min="5" max="5" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -3773,7 +3789,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>273</v>
       </c>
@@ -3790,7 +3806,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>279</v>
       </c>
@@ -3807,7 +3823,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>277</v>
       </c>
@@ -3824,7 +3840,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>281</v>
       </c>
@@ -3841,7 +3857,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>263</v>
       </c>
@@ -3858,7 +3874,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>271</v>
       </c>
@@ -3875,7 +3891,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>261</v>
       </c>
@@ -3892,7 +3908,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -3909,7 +3925,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>267</v>
       </c>
@@ -3926,7 +3942,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>265</v>
       </c>
@@ -3943,7 +3959,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>275</v>
       </c>
@@ -3960,7 +3976,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>269</v>
       </c>
@@ -3977,7 +3993,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3985,7 +4001,7 @@
       <c r="E25" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
     <sortCondition ref="A2:A13"/>
   </sortState>
   <mergeCells count="2">
@@ -3998,14 +4014,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.25" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -4014,7 +4030,7 @@
     <col min="5" max="5" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4027,7 +4043,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>300</v>
       </c>
@@ -4044,7 +4060,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>294</v>
       </c>
@@ -4061,7 +4077,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>298</v>
       </c>
@@ -4078,7 +4094,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -4095,7 +4111,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>296</v>
       </c>
@@ -4112,7 +4128,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>302</v>
       </c>
@@ -4130,7 +4146,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D7">
     <sortCondition ref="A2:A7"/>
   </sortState>
   <mergeCells count="2">
@@ -4143,14 +4159,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.75" customWidth="1"/>
     <col min="2" max="2" width="28.375" customWidth="1"/>
@@ -4159,7 +4175,7 @@
     <col min="5" max="5" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4172,7 +4188,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>324</v>
       </c>
@@ -4189,7 +4205,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>326</v>
       </c>
@@ -4206,7 +4222,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>328</v>
       </c>
@@ -4223,7 +4239,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>334</v>
       </c>
@@ -4240,7 +4256,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>316</v>
       </c>
@@ -4257,7 +4273,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>320</v>
       </c>
@@ -4274,7 +4290,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>336</v>
       </c>
@@ -4291,7 +4307,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>338</v>
       </c>
@@ -4308,7 +4324,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>314</v>
       </c>
@@ -4325,7 +4341,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>318</v>
       </c>
@@ -4342,7 +4358,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>332</v>
       </c>
@@ -4359,7 +4375,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>330</v>
       </c>
@@ -4376,7 +4392,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>322</v>
       </c>
@@ -4393,7 +4409,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>312</v>
       </c>
@@ -4411,7 +4427,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D15">
     <sortCondition ref="A2:A15"/>
   </sortState>
   <mergeCells count="2">
@@ -4424,14 +4440,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.5" customWidth="1"/>
     <col min="2" max="2" width="42.375" customWidth="1"/>
@@ -4440,7 +4456,7 @@
     <col min="5" max="5" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4453,7 +4469,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>398</v>
       </c>
@@ -4470,7 +4486,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>389</v>
       </c>
@@ -4487,7 +4503,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>418</v>
       </c>
@@ -4504,7 +4520,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>356</v>
       </c>
@@ -4521,7 +4537,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>406</v>
       </c>
@@ -4538,7 +4554,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>416</v>
       </c>
@@ -4555,7 +4571,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>381</v>
       </c>
@@ -4572,7 +4588,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>428</v>
       </c>
@@ -4589,7 +4605,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>448</v>
       </c>
@@ -4606,7 +4622,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>444</v>
       </c>
@@ -4623,7 +4639,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>442</v>
       </c>
@@ -4640,7 +4656,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>446</v>
       </c>
@@ -4657,7 +4673,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>438</v>
       </c>
@@ -4674,7 +4690,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>432</v>
       </c>
@@ -4691,7 +4707,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>400</v>
       </c>
@@ -4708,7 +4724,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>454</v>
       </c>
@@ -4725,7 +4741,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>377</v>
       </c>
@@ -4742,7 +4758,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>450</v>
       </c>
@@ -4759,7 +4775,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>436</v>
       </c>
@@ -4776,7 +4792,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>392</v>
       </c>
@@ -4793,7 +4809,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>434</v>
       </c>
@@ -4810,7 +4826,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>379</v>
       </c>
@@ -4827,7 +4843,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>383</v>
       </c>
@@ -4844,7 +4860,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>422</v>
       </c>
@@ -4861,7 +4877,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>424</v>
       </c>
@@ -4878,7 +4894,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>430</v>
       </c>
@@ -4895,7 +4911,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>426</v>
       </c>
@@ -4912,7 +4928,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>440</v>
       </c>
@@ -4929,7 +4945,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>390</v>
       </c>
@@ -4946,7 +4962,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>402</v>
       </c>
@@ -4963,7 +4979,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>367</v>
       </c>
@@ -4980,7 +4996,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>420</v>
       </c>
@@ -4997,7 +5013,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>357</v>
       </c>
@@ -5014,7 +5030,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>359</v>
       </c>
@@ -5031,7 +5047,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>363</v>
       </c>
@@ -5048,7 +5064,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>361</v>
       </c>
@@ -5065,7 +5081,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>365</v>
       </c>
@@ -5082,7 +5098,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>369</v>
       </c>
@@ -5099,7 +5115,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>456</v>
       </c>
@@ -5116,7 +5132,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>387</v>
       </c>
@@ -5133,7 +5149,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>352</v>
       </c>
@@ -5150,7 +5166,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>452</v>
       </c>
@@ -5167,7 +5183,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>466</v>
       </c>
@@ -5184,7 +5200,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>404</v>
       </c>
@@ -5201,7 +5217,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>396</v>
       </c>
@@ -5218,7 +5234,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>350</v>
       </c>
@@ -5235,7 +5251,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>371</v>
       </c>
@@ -5252,7 +5268,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>346</v>
       </c>
@@ -5269,7 +5285,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>412</v>
       </c>
@@ -5286,7 +5302,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>414</v>
       </c>
@@ -5303,7 +5319,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>385</v>
       </c>
@@ -5320,7 +5336,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>348</v>
       </c>
@@ -5337,7 +5353,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>458</v>
       </c>
@@ -5354,7 +5370,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>410</v>
       </c>
@@ -5371,7 +5387,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>394</v>
       </c>
@@ -5388,7 +5404,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>375</v>
       </c>
@@ -5405,7 +5421,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>373</v>
       </c>
@@ -5422,7 +5438,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>354</v>
       </c>
@@ -5439,7 +5455,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>464</v>
       </c>
@@ -5456,7 +5472,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>460</v>
       </c>
@@ -5473,7 +5489,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>462</v>
       </c>
@@ -5490,7 +5506,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>408</v>
       </c>
@@ -5507,8 +5523,25 @@
         <v>529</v>
       </c>
     </row>
+    <row r="64" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>616</v>
+      </c>
+      <c r="B64" t="s">
+        <v>616</v>
+      </c>
+      <c r="C64" t="s">
+        <v>542</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:D63">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D63">
     <sortCondition ref="A2:A63"/>
   </sortState>
   <mergeCells count="2">
@@ -5522,14 +5555,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.5" customWidth="1"/>
     <col min="2" max="2" width="46.25" customWidth="1"/>
@@ -5538,7 +5571,7 @@
     <col min="5" max="5" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5551,7 +5584,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -5568,7 +5601,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5585,7 +5618,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>534</v>
       </c>
@@ -5602,7 +5635,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -5619,7 +5652,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>532</v>
       </c>
@@ -5636,7 +5669,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -5653,7 +5686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -5670,7 +5703,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>530</v>
       </c>
@@ -5687,7 +5720,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5705,7 +5738,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D10">
     <sortCondition ref="A2:A10"/>
   </sortState>
   <mergeCells count="2">
@@ -5718,14 +5751,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.625" customWidth="1"/>
     <col min="2" max="2" width="48.625" customWidth="1"/>
@@ -5734,7 +5767,7 @@
     <col min="5" max="5" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5747,7 +5780,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -5764,7 +5797,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -5781,7 +5814,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>551</v>
       </c>
@@ -5798,7 +5831,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>356</v>
       </c>
@@ -5815,7 +5848,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -5832,7 +5865,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>541</v>
       </c>
@@ -5849,7 +5882,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>547</v>
       </c>
@@ -5866,7 +5899,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>379</v>
       </c>
@@ -5883,7 +5916,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>549</v>
       </c>
@@ -5900,7 +5933,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>545</v>
       </c>
@@ -5917,7 +5950,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>543</v>
       </c>
@@ -5934,7 +5967,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -5951,7 +5984,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -5968,7 +6001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -5985,7 +6018,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>530</v>
       </c>
@@ -6003,7 +6036,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D16">
     <sortCondition ref="A2:A16"/>
   </sortState>
   <mergeCells count="2">
@@ -6016,14 +6049,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.75" customWidth="1"/>
     <col min="2" max="2" width="39.375" customWidth="1"/>
@@ -6032,7 +6065,7 @@
     <col min="5" max="5" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -6045,7 +6078,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -6062,7 +6095,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -6079,7 +6112,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>583</v>
       </c>
@@ -6096,7 +6129,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -6113,7 +6146,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>563</v>
       </c>
@@ -6130,7 +6163,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>565</v>
       </c>
@@ -6147,7 +6180,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>562</v>
       </c>
@@ -6164,7 +6197,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>567</v>
       </c>
@@ -6181,7 +6214,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>589</v>
       </c>
@@ -6198,7 +6231,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>587</v>
       </c>
@@ -6215,7 +6248,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>585</v>
       </c>
@@ -6232,7 +6265,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>571</v>
       </c>
@@ -6249,7 +6282,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>579</v>
       </c>
@@ -6266,7 +6299,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>591</v>
       </c>
@@ -6283,7 +6316,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>383</v>
       </c>
@@ -6300,7 +6333,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>569</v>
       </c>
@@ -6317,7 +6350,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>594</v>
       </c>
@@ -6334,7 +6367,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>596</v>
       </c>
@@ -6351,7 +6384,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>577</v>
       </c>
@@ -6368,7 +6401,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>573</v>
       </c>
@@ -6385,7 +6418,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>575</v>
       </c>
@@ -6402,7 +6435,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -6419,7 +6452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -6436,7 +6469,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -6453,7 +6486,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -6470,7 +6503,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -6487,7 +6520,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -6504,7 +6537,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -6521,7 +6554,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -6538,7 +6571,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -6555,7 +6588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -6572,7 +6605,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>581</v>
       </c>
@@ -6590,7 +6623,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D33">
     <sortCondition ref="A2:A33"/>
   </sortState>
   <mergeCells count="2">

--- a/trunk/BKI1100_R30_资源文件/Run.xlsx
+++ b/trunk/BKI1100_R30_资源文件/Run.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\代码\BioBaseCLIA\1100\trunk\BKI1100_R30_资源文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6426D8A4-DD0E-4020-83CD-B3CCB29DE2AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3068CE61-DBD0-4CF5-815C-EF848089B7DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="frmAddSample" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="frmRunInfoModify" sheetId="6" r:id="rId6"/>
     <sheet name="frmSampleLoad" sheetId="7" r:id="rId7"/>
     <sheet name="frmTestResult" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="623">
   <si>
     <t>keywordText.Standard</t>
   </si>
@@ -1888,6 +1889,26 @@
   <si>
     <t>keywordText.DontAddReagentWithWorking</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经装载的样本存在标准品，此次装载样本失败</t>
+  </si>
+  <si>
+    <t>已经装载样本存在非标准品样本，此次装载样本失败</t>
+  </si>
+  <si>
+    <t>keywordText.Stopload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywordText.StoploadStandard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The loaded samples have standard products, this time loading samples failed</t>
+  </si>
+  <si>
+    <t>The loaded samples have non-standard samples, this time loading samples failed</t>
   </si>
 </sst>
 </file>
@@ -1953,11 +1974,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2239,16 +2260,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:XFD88"/>
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="36.875" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="3" max="3" width="49.25" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="5" max="5" width="22.375" customWidth="1"/>
   </cols>
@@ -2257,14 +2278,14 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -3743,6 +3764,40 @@
       </c>
       <c r="E88" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>619</v>
+      </c>
+      <c r="B89" t="s">
+        <v>619</v>
+      </c>
+      <c r="C89" t="s">
+        <v>617</v>
+      </c>
+      <c r="D89" t="s">
+        <v>619</v>
+      </c>
+      <c r="E89" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>620</v>
+      </c>
+      <c r="B90" t="s">
+        <v>620</v>
+      </c>
+      <c r="C90" t="s">
+        <v>618</v>
+      </c>
+      <c r="D90" t="s">
+        <v>620</v>
+      </c>
+      <c r="E90" t="s">
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -3780,14 +3835,14 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -4034,14 +4089,14 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -4179,14 +4234,14 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -4441,10 +4496,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4460,14 +4515,14 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -5521,23 +5576,6 @@
       </c>
       <c r="E63" t="s">
         <v>529</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>616</v>
-      </c>
-      <c r="B64" t="s">
-        <v>616</v>
-      </c>
-      <c r="C64" t="s">
-        <v>542</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -5556,10 +5594,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5575,14 +5613,14 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -5735,6 +5773,23 @@
       </c>
       <c r="E10" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>616</v>
+      </c>
+      <c r="B11" t="s">
+        <v>616</v>
+      </c>
+      <c r="C11" t="s">
+        <v>542</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -5755,7 +5810,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5771,14 +5826,14 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -6069,14 +6124,14 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -6633,4 +6688,18 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E6E545-15E9-4705-8F87-E1C62084E4BB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>